--- a/biology/Botanique/Abrom/Abrom..xlsx
+++ b/biology/Botanique/Abrom/Abrom..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johannes Abromeit est un botaniste allemand, né le 17 février 1857 à Paszleitschen (de), arrondissement de Ragnit et mort le 19 janvier 1946 à Iéna.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Abromeit fait d’abord ses études à Gumbinnen, avant d’entrer au Realgymnasium auf der Burg de Königsberg. Il y devient assistant à l’institut de botanique. Il fait paraître une flore de Prusse en 1898. En 1912, il devient professeur extraordinaire à l’université. Son herbier brûle au cours de la guerre[pas clair].
 En 1927, Carl Christian Mez (1866-1944) lui dédie le genre Abromeitiella de la famille des Bromeliaceae.
@@ -545,13 +559,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Monographies
-Über die Anatomie des Eichenholzes, (Inaugural Dissertation von Königsberg), Berlín (1884).
+          <t>Monographies</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Über die Anatomie des Eichenholzes, (Inaugural Dissertation von Königsberg), Berlín (1884).
 Flora von West- und Ostpreußen, Berlín (1898), avec Walther Neuhoff (de), Hans Steffen, A. Jentzsch et Gustav Vogel.
 Schutz der botanischen Naturdenkmäler in Ostpreußen, (1907).
-Otto Wünsche (herausgegeben von Johannes Abromeit): Die Pflanzen Deutschlands: eine Anleitung zu ihrer Kenntnis; 2. Höhere Pflanzen, 9. Auflage Leipzig (1909).
-Articles
-Berichtigung des Sanio'schen Aufsatzes über die Zahlenverhältnisse der Flora Preussens, in: Schriften der physikalisch-ökonomischen Gesellschaft zu Königsberg 25/1885, Seite 135-139
+Otto Wünsche (herausgegeben von Johannes Abromeit): Die Pflanzen Deutschlands: eine Anleitung zu ihrer Kenntnis; 2. Höhere Pflanzen, 9. Auflage Leipzig (1909).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Abrom.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abrom.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Berichtigung des Sanio'schen Aufsatzes über die Zahlenverhältnisse der Flora Preussens, in: Schriften der physikalisch-ökonomischen Gesellschaft zu Königsberg 25/1885, Seite 135-139
 Bericht über die botanische Untersuchung des Kreises Ortelsburg, in: Schriften der physikalisch-ökonomischen Gesellschaft zu Königsberg 28/1888, Seite 49-57
 Bericht über die botanische Untersuchung der Gewässer des Kreises Schlochau durch Professor Caspary, nach dessen handschriftlichen Aufzeichnungen, in: Schriften der physikalisch-ökonomischen Gesellschaft zu Königsberg 29/1889, Seite 86-93
 Systematische Zusammenstellung der wichtigeren Funde von neuen Standorten, in: Schriften der physikalisch-ökonomischen Gesellschaft zu Königsberg 31/1891, Seite 18-33
